--- a/tpn/tools/xlsx2data/data/level.xlsx
+++ b/tpn/tools/xlsx2data/data/level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Level" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp@ui64@*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>level@u32@!</t>
   </si>
   <si>
-    <t>level@ui32@!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>exp@u64@*</t>
   </si>
 </sst>
 </file>
@@ -374,24 +372,24 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -399,7 +397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -408,7 +406,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -417,7 +415,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -426,7 +424,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -435,7 +433,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -447,8 +445,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1" display="level@ui32@!"/>
+    <hyperlink ref="B1" r:id="rId2" display="exp@ui64@*"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -463,7 +461,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
